--- a/2018_CCSB_LoadsData_WY2010-2017/Sites/Combined_Outflow_11452901/1_wy2016_2017/1_rloadest/1_pTHg/1_Excel for Text Files/pTHg_CombinedR.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Sites/Combined_Outflow_11452901/1_wy2016_2017/1_rloadest/1_pTHg/1_Excel for Text Files/pTHg_CombinedR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Sites\Combined_Outflow_11452901\1_wy2016_2017\1_rloadest\1_SSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Sites\Combined_Outflow_11452901\1_wy2016_2017\1_rloadest\1_pTHg\1_Excel for Text Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3078AE95-8DA7-4624-96E2-B0B173D88461}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E9D0550-FEF1-4361-B763-2A46CD3D2E4B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="7590" xr2:uid="{B72779AA-D563-400B-B6CD-2A371E05E2CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270" xr2:uid="{CE881C52-EC58-4D9B-885D-B793B4E4B6B8}"/>
   </bookViews>
   <sheets>
     <sheet name="pTHg_CombinedR" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Dates</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>6n</t>
+  </si>
+  <si>
+    <t>14:20</t>
   </si>
 </sst>
 </file>
@@ -84,10 +87,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,11 +407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FB81AC-FEF2-4C85-B599-B3AC487E10A0}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C817AB3E-1F5F-4E14-B041-F040629CBF8B}">
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -444,229 +450,482 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>42393</v>
+        <v>42389</v>
       </c>
       <c r="B3" s="2">
-        <v>0.40183238440735369</v>
+        <v>0.5625</v>
       </c>
       <c r="C3">
-        <v>117</v>
+        <v>476</v>
       </c>
       <c r="D3">
-        <v>8.4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>42439</v>
+        <v>42392</v>
       </c>
       <c r="B4" s="2">
-        <v>0.65933814661409929</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C4">
-        <v>663</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>42441</v>
+        <v>42393</v>
       </c>
       <c r="B5" s="2">
-        <v>0.55815309248746492</v>
+        <v>0.40183238440735369</v>
       </c>
       <c r="C5">
-        <v>4378</v>
+        <v>117</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>42442</v>
+        <v>42402</v>
       </c>
       <c r="B6" s="2">
-        <v>0.51066760248567022</v>
+        <v>0.625</v>
       </c>
       <c r="C6">
-        <v>3688</v>
+        <v>498</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>42443</v>
+        <v>42403</v>
       </c>
       <c r="B7" s="2">
-        <v>0.53119982396714727</v>
+        <v>0.58368055555555554</v>
       </c>
       <c r="C7">
-        <v>3190</v>
+        <v>430</v>
       </c>
       <c r="D7">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>42444</v>
+        <v>42404</v>
       </c>
       <c r="B8" s="2">
-        <v>0.51742016319439443</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="C8">
-        <v>2637</v>
+        <v>256</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>42446</v>
+        <v>42436</v>
       </c>
       <c r="B9" s="2">
-        <v>0.56646408071301035</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="C9">
-        <v>2840</v>
+        <v>541</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>42744</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.72934110256754703</v>
+        <v>42437</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>12451</v>
+        <v>551</v>
       </c>
       <c r="D10">
-        <v>272</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>42745</v>
+        <v>42439</v>
       </c>
       <c r="B11" s="2">
-        <v>0.60417623205853732</v>
+        <v>0.65933814661409929</v>
       </c>
       <c r="C11">
-        <v>3801</v>
+        <v>663</v>
       </c>
       <c r="D11">
-        <v>187</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>42746</v>
+        <v>42441</v>
       </c>
       <c r="B12" s="2">
-        <v>0.66666817603807427</v>
+        <v>0.55815309248746492</v>
       </c>
       <c r="C12">
-        <v>13750</v>
+        <v>4378</v>
       </c>
       <c r="D12">
-        <v>161</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>42767</v>
+        <v>42442</v>
       </c>
       <c r="B13" s="2">
-        <v>0.54185185925636103</v>
+        <v>0.51066760248567022</v>
       </c>
       <c r="C13">
-        <v>3053</v>
+        <v>3688</v>
       </c>
       <c r="D13">
-        <v>8.3000000000000007</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>42774</v>
+        <v>42443</v>
       </c>
       <c r="B14" s="2">
-        <v>0.57639118479022766</v>
+        <v>0.53119982396714727</v>
       </c>
       <c r="C14">
-        <v>11060</v>
+        <v>3190</v>
       </c>
       <c r="D14">
-        <v>178</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>42776</v>
+        <v>42444</v>
       </c>
       <c r="B15" s="2">
-        <v>0.61458485941221541</v>
+        <v>0.51742016319439443</v>
       </c>
       <c r="C15">
-        <v>11505</v>
+        <v>2637</v>
       </c>
       <c r="D15">
-        <v>115</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>42787</v>
+        <v>42446</v>
       </c>
       <c r="B16" s="2">
-        <v>0.5590286977733987</v>
+        <v>0.56646408071301035</v>
       </c>
       <c r="C16">
-        <v>13460</v>
+        <v>2840</v>
       </c>
       <c r="D16">
-        <v>148</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>42810</v>
+        <v>42466</v>
       </c>
       <c r="B17" s="2">
-        <v>0.64976728373393811</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C17">
-        <v>2942</v>
+        <v>473</v>
       </c>
       <c r="D17">
-        <v>4.9000000000000004</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
+        <v>42719</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C18">
+        <v>79</v>
+      </c>
+      <c r="D18">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42720</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C19">
+        <v>233</v>
+      </c>
+      <c r="D19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42740</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.61458333333333326</v>
+      </c>
+      <c r="C20">
+        <v>205</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42744</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.72934110256754703</v>
+      </c>
+      <c r="C21">
+        <v>12451</v>
+      </c>
+      <c r="D21">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>42745</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.60417623205853732</v>
+      </c>
+      <c r="C22">
+        <v>3801</v>
+      </c>
+      <c r="D22">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>42746</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.66666817603807427</v>
+      </c>
+      <c r="C23">
+        <v>13750</v>
+      </c>
+      <c r="D23">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>42749</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C24">
+        <v>3891</v>
+      </c>
+      <c r="D24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>42754</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C25">
+        <v>6730</v>
+      </c>
+      <c r="D25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>42755</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C26">
+        <v>6730</v>
+      </c>
+      <c r="D26">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>42756</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C27">
+        <v>10109</v>
+      </c>
+      <c r="D27">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>42758</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="C28">
+        <v>9896</v>
+      </c>
+      <c r="D28">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>42761</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.47934027777777777</v>
+      </c>
+      <c r="C29">
+        <v>3453</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.54185185925636103</v>
+      </c>
+      <c r="C30">
+        <v>3053</v>
+      </c>
+      <c r="D30">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>42774</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.57639118479022766</v>
+      </c>
+      <c r="C31">
+        <v>11060</v>
+      </c>
+      <c r="D31">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>42776</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.61458485941221541</v>
+      </c>
+      <c r="C32">
+        <v>11505</v>
+      </c>
+      <c r="D32">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>42787</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.5590286977733987</v>
+      </c>
+      <c r="C33">
+        <v>13460</v>
+      </c>
+      <c r="D33">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>42810</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.64976728373393811</v>
+      </c>
+      <c r="C34">
+        <v>2942</v>
+      </c>
+      <c r="D34">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>42829</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B35" s="2">
         <v>0.65605302031566826</v>
       </c>
-      <c r="C18">
+      <c r="C35">
         <v>259</v>
       </c>
-      <c r="D18">
+      <c r="D35">
         <v>7.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>42851</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.60451388888888891</v>
+      </c>
+      <c r="C36">
+        <v>223</v>
+      </c>
+      <c r="D36">
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>